--- a/daftar_berita/liputan6.xlsx
+++ b/daftar_berita/liputan6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Profil dr Tan Shot Yen, Ahli Gizi Lulusan Filsafat yang Kritik Tajam MBG di Rapat DPR</t>
+          <t>Banyak Kasus Keracunan MBG, Pemerintah Wajibkan Seluruh SPPG Punya Sertifikat Laik Higieni...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26T14:37:19+07:00</t>
+          <t>2025-09-28T16:20:23+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6169437/profil-dr-tan-shot-yen-ahli-gizi-lulusan-filsafat-yang-kritik-tajam-mbg-di-rapat-dpr</t>
+          <t>https://www.liputan6.com/news/read/6170780/banyak-kasus-keracunan-mbg-pemerintah-wajibkan-seluruh-sppg-punya-sertifikat-laik-higienis-sanitasi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Penjelasan BGN Soal Keracunan Massal Siswa di Ketapang usai Santap Menu MBG Berbahan Ikan ...</t>
+          <t>Kepala BGN Sebut Kasus Keracunan MBG Banyak Terjadi di SPPG Baru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-26T10:31:44+07:00</t>
+          <t>2025-09-28T15:45:26+07:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6169175/penjelasan-bgn-soal-keracunan-massal-siswa-di-ketapang-usai-santap-menu-mbg-berbahan-ikan-hiu</t>
+          <t>https://www.liputan6.com/news/read/6170761/kepala-bgn-sebut-kasus-keracunan-mbg-banyak-terjadi-di-sppg-baru</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Top 3 News: Istana Tanggapi Usulan Setop Sementara MBG Imbas Banyak Kasus Keracunan</t>
+          <t>Isi Lengkap Surat Terbuka IDAI ke BGN usai Marak Murid Keracunan MBG: Keselamatan Anak Pri...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-26T08:30:06+07:00</t>
+          <t>2025-09-28T13:51:29+07:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6168942/top-3-news-istana-tanggapi-usulan-setop-sementara-mbg-imbas-banyak-kasus-keracunan</t>
+          <t>https://www.liputan6.com/news/read/6170716/isi-lengkap-surat-terbuka-idai-ke-bgn-usai-marak-murid-keracunan-mbg-keselamatan-anak-prioritas-utama</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Banyak Siswa Keracunan MBG, Cucun DPR: Jangan Program Visioner Ini Rusak Karena Lemahnya P...</t>
+          <t>DPRD Jakarta: Program MBG Perlu Evaluasi, Bukan Dihentikan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-26T07:44:43+07:00</t>
+          <t>2025-09-28T12:35:07+07:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6169065/banyak-siswa-keracunan-mbg-cucun-dpr-jangan-program-visioner-ini-rusak-karena-lemahnya-pengawasan</t>
+          <t>https://www.liputan6.com/news/read/6170666/dprd-jakarta-program-mbg-perlu-evaluasi-bukan-dihentikan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Solusi Agar MBG Tak Makan Korban Lagi</t>
+          <t>BGN Buka Hotline Pengaduan Program MBG, Catat Nomornya</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-26T06:01:11+07:00</t>
+          <t>2025-09-28T08:54:18+07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,64 +586,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6169020/solusi-agar-mbg-tak-makan-korban-lagi</t>
+          <t>https://www.liputan6.com/news/read/6170567/bgn-buka-hotline-pengaduan-program-mbg-catat-nomornya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Keracunan Massal MBG, Ahli Gizi Kritik Tata Kelola dan Keamanan Pangan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-09-26T01:35:21+07:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6168881/keracunan-massal-mbg-ahli-gizi-kritik-tata-kelola-dan-keamanan-pangan</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kasus Keracunan MBG Marak, Pengelola Dapur Diminta Utamakan Kesehatan dan Kebersihan</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-09-26T00:09:16+07:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6169021/kasus-keracunan-mbg-marak-pengelola-dapur-diminta-utamakan-kesehatan-dan-kebersihan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>mbg</t>
         </is>

--- a/daftar_berita/liputan6.xlsx
+++ b/daftar_berita/liputan6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banyak Kasus Keracunan MBG, Pemerintah Wajibkan Seluruh SPPG Punya Sertifikat Laik Higieni...</t>
+          <t>Prabowo Rapat Bareng Menteri di Kertanegara Minggu Malam, Bahas MBG hingga Migas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-28T16:20:23+07:00</t>
+          <t>2025-09-29T01:01:30+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,118 +478,10 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6170780/banyak-kasus-keracunan-mbg-pemerintah-wajibkan-seluruh-sppg-punya-sertifikat-laik-higienis-sanitasi</t>
+          <t>https://www.liputan6.com/news/read/6170969/prabowo-rapat-bareng-menteri-di-kertanegara-minggu-malam-bahas-mbg-hingga-migas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kepala BGN Sebut Kasus Keracunan MBG Banyak Terjadi di SPPG Baru</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-09-28T15:45:26+07:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6170761/kepala-bgn-sebut-kasus-keracunan-mbg-banyak-terjadi-di-sppg-baru</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Isi Lengkap Surat Terbuka IDAI ke BGN usai Marak Murid Keracunan MBG: Keselamatan Anak Pri...</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-09-28T13:51:29+07:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6170716/isi-lengkap-surat-terbuka-idai-ke-bgn-usai-marak-murid-keracunan-mbg-keselamatan-anak-prioritas-utama</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DPRD Jakarta: Program MBG Perlu Evaluasi, Bukan Dihentikan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-09-28T12:35:07+07:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6170666/dprd-jakarta-program-mbg-perlu-evaluasi-bukan-dihentikan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BGN Buka Hotline Pengaduan Program MBG, Catat Nomornya</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-09-28T08:54:18+07:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/news/read/6170567/bgn-buka-hotline-pengaduan-program-mbg-catat-nomornya</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>mbg</t>
         </is>

--- a/daftar_berita/liputan6.xlsx
+++ b/daftar_berita/liputan6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,189 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Prabowo Beri Petunjuk Sangat Detail soal MBG, Terutama Masalah Kebersihan</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-09-29T09:05:05+07:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/news/read/6171092/prabowo-beri-petunjuk-sangat-detail-soal-mbg-terutama-masalah-kebersihan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mbg, prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Unggah Foto Bareng Donald Trump, Prabowo Yakin Perdamaian Dunia Segera Tercapai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-09-29T07:49:22+07:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/news/read/6171054/unggah-foto-bareng-donald-trump-prabowo-yakin-perdamaian-dunia-segera-tercapai</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Prabowo Rapat Bareng Menteri di Kertanegara Minggu Malam, Bahas MBG hingga Migas</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-09-29T01:01:30+07:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Tidak Diketahui</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.liputan6.com/news/read/6170969/prabowo-rapat-bareng-menteri-di-kertanegara-minggu-malam-bahas-mbg-hingga-migas</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>mbg</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mbg, prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prabowo Selesaikan Lawatan 4 Negara, Bawa Pulang Investasi Rp 380 Triliun hingga Artefak B...</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-09-29T13:15:46+07:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/bisnis/read/6171276/prabowo-selesaikan-lawatan-4-negara-bawa-pulang-investasi-rp-380-triliun-hingga-artefak-bersejarah</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baru 3 Minggu Jadi Menkeu, Ini Deretan Gebrakan Purbaya</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-09-29T12:32:46+07:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/bisnis/read/6171279/baru-3-minggu-jadi-menkeu-ini-deretan-gebrakan-purbaya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>purbaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Menkeu Purbaya Tak Naikan Tarif Cukai Rokok, Siapa yang Untung?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-09-29T12:00:15+07:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/bisnis/read/6171204/menkeu-purbaya-tak-naikan-tarif-cukai-rokok-siapa-yang-untung</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>purbaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Menkeu Purbaya Sidak ke Kantor Pusat BNI, Ada apa?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-09-29T11:40:20+07:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/bisnis/read/6171242/menkeu-purbaya-sidak-ke-kantor-pusat-bni-ada-apa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>purbaya</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/liputan6.xlsx
+++ b/daftar_berita/liputan6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prabowo Beri Petunjuk Sangat Detail soal MBG, Terutama Masalah Kebersihan</t>
+          <t>Sedot Rp 218 Triliun, Menkeu Purbaya Bakal Awasi Subsidi BBM dan LPG 3 Kg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-29T09:05:05+07:00</t>
+          <t>2025-09-30T13:15:06+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6171092/prabowo-beri-petunjuk-sangat-detail-soal-mbg-terutama-masalah-kebersihan</t>
+          <t>https://www.liputan6.com/bisnis/read/6172232/sedot-rp-218-triliun-menkeu-purbaya-bakal-awasi-subsidi-bbm-dan-lpg-3-kg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mbg, prabowo</t>
+          <t>purbaya</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unggah Foto Bareng Donald Trump, Prabowo Yakin Perdamaian Dunia Segera Tercapai</t>
+          <t>Cukai Rokok 2026 Tak Naik, Ekonom: Prioritas Sekarang Berantas Rokok Ilegal!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-29T07:49:22+07:00</t>
+          <t>2025-09-30T10:00:07+07:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6171054/unggah-foto-bareng-donald-trump-prabowo-yakin-perdamaian-dunia-segera-tercapai</t>
+          <t>https://www.liputan6.com/bisnis/read/6171967/cukai-rokok-2026-tak-naik-ekonom-prioritas-sekarang-berantas-rokok-ilegal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>prabowo</t>
+          <t>cukai</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prabowo Rapat Bareng Menteri di Kertanegara Minggu Malam, Bahas MBG hingga Migas</t>
+          <t>Sumbang Cukai Rp 216 Triliun, Industri Rokok Masih Jadi Penopang Ekonomi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-29T01:01:30+07:00</t>
+          <t>2025-09-29T22:30:23+07:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,24 +532,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/news/read/6170969/prabowo-rapat-bareng-menteri-di-kertanegara-minggu-malam-bahas-mbg-hingga-migas</t>
+          <t>https://www.liputan6.com/bisnis/read/6171823/sumbang-cukai-rp-216-triliun-industri-rokok-masih-jadi-penopang-ekonomi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mbg, prabowo</t>
+          <t>cukai</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prabowo Selesaikan Lawatan 4 Negara, Bawa Pulang Investasi Rp 380 Triliun hingga Artefak B...</t>
+          <t>Menkeu Purbaya Pede Ekonomi Indonesia Tumbuh 5,5% Lebih di Kuartal 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-29T13:15:46+07:00</t>
+          <t>2025-09-29T19:15:44+07:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,24 +559,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/bisnis/read/6171276/prabowo-selesaikan-lawatan-4-negara-bawa-pulang-investasi-rp-380-triliun-hingga-artefak-bersejarah</t>
+          <t>https://www.liputan6.com/bisnis/read/6171701/menkeu-purbaya-pede-ekonomi-indonesia-tumbuh-55-lebih-di-kuartal-2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>prabowo</t>
+          <t>purbaya</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baru 3 Minggu Jadi Menkeu, Ini Deretan Gebrakan Purbaya</t>
+          <t>Sidak Kantor Pusat BNI, Menkeu Purbaya Cek Pemakaian Dana Rp 200 Triliun</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-29T12:32:46+07:00</t>
+          <t>2025-09-29T18:45:33+07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/bisnis/read/6171279/baru-3-minggu-jadi-menkeu-ini-deretan-gebrakan-purbaya</t>
+          <t>https://www.liputan6.com/bisnis/read/6171665/sidak-kantor-pusat-bni-menkeu-purbaya-cek-pemakaian-dana-rp-200-triliun</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya Tak Naikan Tarif Cukai Rokok, Siapa yang Untung?</t>
+          <t>Baru 3 Minggu Jadi Menkeu, Ini Deretan Gebrakan Purbaya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-29T12:00:15+07:00</t>
+          <t>2025-09-29T12:32:46+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/bisnis/read/6171204/menkeu-purbaya-tak-naikan-tarif-cukai-rokok-siapa-yang-untung</t>
+          <t>https://www.liputan6.com/bisnis/read/6171279/baru-3-minggu-jadi-menkeu-ini-deretan-gebrakan-purbaya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,25 +625,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Menkeu Purbaya Tak Naikan Tarif Cukai Rokok, Siapa yang Untung?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-09-29T12:00:15+07:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.liputan6.com/bisnis/read/6171204/menkeu-purbaya-tak-naikan-tarif-cukai-rokok-siapa-yang-untung</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>purbaya, cukai</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Menkeu Purbaya Sidak ke Kantor Pusat BNI, Ada apa?</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-09-29T11:40:20+07:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://www.liputan6.com/bisnis/read/6171242/menkeu-purbaya-sidak-ke-kantor-pusat-bni-ada-apa</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>purbaya</t>
         </is>

--- a/daftar_berita/liputan6.xlsx
+++ b/daftar_berita/liputan6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sedot Rp 218 Triliun, Menkeu Purbaya Bakal Awasi Subsidi BBM dan LPG 3 Kg</t>
+          <t>Diam-Diam Prabowo Pantau Kinerja Menkeu Purbaya via Medsos</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-30T13:15:06+07:00</t>
+          <t>2025-10-01T07:29:36+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,199 +478,10 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.liputan6.com/bisnis/read/6172232/sedot-rp-218-triliun-menkeu-purbaya-bakal-awasi-subsidi-bbm-dan-lpg-3-kg</t>
+          <t>https://www.liputan6.com/news/read/6172970/diam-diam-prabowo-pantau-kinerja-menkeu-purbaya-via-medsos</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>purbaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cukai Rokok 2026 Tak Naik, Ekonom: Prioritas Sekarang Berantas Rokok Ilegal!</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-09-30T10:00:07+07:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171967/cukai-rokok-2026-tak-naik-ekonom-prioritas-sekarang-berantas-rokok-ilegal</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>cukai</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sumbang Cukai Rp 216 Triliun, Industri Rokok Masih Jadi Penopang Ekonomi</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-09-29T22:30:23+07:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171823/sumbang-cukai-rp-216-triliun-industri-rokok-masih-jadi-penopang-ekonomi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>cukai</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Menkeu Purbaya Pede Ekonomi Indonesia Tumbuh 5,5% Lebih di Kuartal 2025</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-09-29T19:15:44+07:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171701/menkeu-purbaya-pede-ekonomi-indonesia-tumbuh-55-lebih-di-kuartal-2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>purbaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sidak Kantor Pusat BNI, Menkeu Purbaya Cek Pemakaian Dana Rp 200 Triliun</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-09-29T18:45:33+07:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171665/sidak-kantor-pusat-bni-menkeu-purbaya-cek-pemakaian-dana-rp-200-triliun</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>purbaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Baru 3 Minggu Jadi Menkeu, Ini Deretan Gebrakan Purbaya</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-09-29T12:32:46+07:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171279/baru-3-minggu-jadi-menkeu-ini-deretan-gebrakan-purbaya</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>purbaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Menkeu Purbaya Tak Naikan Tarif Cukai Rokok, Siapa yang Untung?</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-09-29T12:00:15+07:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171204/menkeu-purbaya-tak-naikan-tarif-cukai-rokok-siapa-yang-untung</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>purbaya, cukai</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Menkeu Purbaya Sidak ke Kantor Pusat BNI, Ada apa?</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-09-29T11:40:20+07:00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.liputan6.com/bisnis/read/6171242/menkeu-purbaya-sidak-ke-kantor-pusat-bni-ada-apa</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>purbaya</t>
         </is>
